--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H2">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.494001715400145</v>
+        <v>0.310643</v>
       </c>
       <c r="N2">
-        <v>0.494001715400145</v>
+        <v>0.931929</v>
       </c>
       <c r="O2">
-        <v>0.4696505050871426</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="P2">
-        <v>0.4696505050871426</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="Q2">
-        <v>0.3167300308546672</v>
+        <v>0.3844637883293333</v>
       </c>
       <c r="R2">
-        <v>0.3167300308546672</v>
+        <v>3.460174094964</v>
       </c>
       <c r="S2">
-        <v>0.01516997441435121</v>
+        <v>0.008279266320561507</v>
       </c>
       <c r="T2">
-        <v>0.01516997441435121</v>
+        <v>0.008279266320561507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H3">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.557847926086952</v>
+        <v>0.5318553333333332</v>
       </c>
       <c r="N3">
-        <v>0.557847926086952</v>
+        <v>1.595566</v>
       </c>
       <c r="O3">
-        <v>0.5303494949128573</v>
+        <v>0.3645195816936723</v>
       </c>
       <c r="P3">
-        <v>0.5303494949128573</v>
+        <v>0.3645195816936722</v>
       </c>
       <c r="Q3">
-        <v>0.3576651362407001</v>
+        <v>0.658244725606222</v>
       </c>
       <c r="R3">
-        <v>0.3576651362407001</v>
+        <v>5.924202530455999</v>
       </c>
       <c r="S3">
-        <v>0.01713058578953158</v>
+        <v>0.01417502389777874</v>
       </c>
       <c r="T3">
-        <v>0.01713058578953158</v>
+        <v>0.01417502389777874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.59302564509964</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H4">
-        <v>3.59302564509964</v>
+        <v>3.712916</v>
       </c>
       <c r="I4">
-        <v>0.1810129246787267</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J4">
-        <v>0.1810129246787267</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.494001715400145</v>
+        <v>0.61656</v>
       </c>
       <c r="N4">
-        <v>0.494001715400145</v>
+        <v>1.84968</v>
       </c>
       <c r="O4">
-        <v>0.4696505050871426</v>
+        <v>0.4225739203938614</v>
       </c>
       <c r="P4">
-        <v>0.4696505050871426</v>
+        <v>0.4225739203938613</v>
       </c>
       <c r="Q4">
-        <v>1.774960832155935</v>
+        <v>0.7630784963199999</v>
       </c>
       <c r="R4">
-        <v>1.774960832155935</v>
+        <v>6.86770646688</v>
       </c>
       <c r="S4">
-        <v>0.08501281150266492</v>
+        <v>0.01643257515091408</v>
       </c>
       <c r="T4">
-        <v>0.08501281150266492</v>
+        <v>0.01643257515091408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H5">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I5">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J5">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.557847926086952</v>
+        <v>0.310643</v>
       </c>
       <c r="N5">
-        <v>0.557847926086952</v>
+        <v>0.931929</v>
       </c>
       <c r="O5">
-        <v>0.5303494949128573</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="P5">
-        <v>0.5303494949128573</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="Q5">
-        <v>2.004361904496067</v>
+        <v>1.132122570707</v>
       </c>
       <c r="R5">
-        <v>2.004361904496067</v>
+        <v>10.189103136363</v>
       </c>
       <c r="S5">
-        <v>0.09600011317606182</v>
+        <v>0.02437978440344792</v>
       </c>
       <c r="T5">
-        <v>0.09600011317606182</v>
+        <v>0.02437978440344791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.58295704856817</v>
+        <v>3.644449</v>
       </c>
       <c r="H6">
-        <v>4.58295704856817</v>
+        <v>10.933347</v>
       </c>
       <c r="I6">
-        <v>0.2308846473639084</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J6">
-        <v>0.2308846473639084</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.494001715400145</v>
+        <v>0.5318553333333332</v>
       </c>
       <c r="N6">
-        <v>0.494001715400145</v>
+        <v>1.595566</v>
       </c>
       <c r="O6">
-        <v>0.4696505050871426</v>
+        <v>0.3645195816936723</v>
       </c>
       <c r="P6">
-        <v>0.4696505050871426</v>
+        <v>0.3645195816936722</v>
       </c>
       <c r="Q6">
-        <v>2.263988643597862</v>
+        <v>1.938319637711333</v>
       </c>
       <c r="R6">
-        <v>2.263988643597862</v>
+        <v>17.444876739402</v>
       </c>
       <c r="S6">
-        <v>0.1084350912513264</v>
+        <v>0.04174089987699896</v>
       </c>
       <c r="T6">
-        <v>0.1084350912513264</v>
+        <v>0.04174089987699896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.58295704856817</v>
+        <v>3.644449</v>
       </c>
       <c r="H7">
-        <v>4.58295704856817</v>
+        <v>10.933347</v>
       </c>
       <c r="I7">
-        <v>0.2308846473639084</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J7">
-        <v>0.2308846473639084</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.557847926086952</v>
+        <v>0.61656</v>
       </c>
       <c r="N7">
-        <v>0.557847926086952</v>
+        <v>1.84968</v>
       </c>
       <c r="O7">
-        <v>0.5303494949128573</v>
+        <v>0.4225739203938614</v>
       </c>
       <c r="P7">
-        <v>0.5303494949128573</v>
+        <v>0.4225739203938613</v>
       </c>
       <c r="Q7">
-        <v>2.556593084889332</v>
+        <v>2.24702147544</v>
       </c>
       <c r="R7">
-        <v>2.556593084889332</v>
+        <v>20.22319327896</v>
       </c>
       <c r="S7">
-        <v>0.122449556112582</v>
+        <v>0.04838866438899266</v>
       </c>
       <c r="T7">
-        <v>0.122449556112582</v>
+        <v>0.04838866438899265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>11.0324186406963</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H8">
-        <v>11.0324186406963</v>
+        <v>5.014487</v>
       </c>
       <c r="I8">
-        <v>0.5558018677534822</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J8">
-        <v>0.5558018677534822</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.494001715400145</v>
+        <v>0.310643</v>
       </c>
       <c r="N8">
-        <v>0.494001715400145</v>
+        <v>0.931929</v>
       </c>
       <c r="O8">
-        <v>0.4696505050871426</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="P8">
-        <v>0.4696505050871426</v>
+        <v>0.2129064979124664</v>
       </c>
       <c r="Q8">
-        <v>5.450033733516507</v>
+        <v>0.5192384283803334</v>
       </c>
       <c r="R8">
-        <v>5.450033733516507</v>
+        <v>4.673145855423</v>
       </c>
       <c r="S8">
-        <v>0.2610326279188002</v>
+        <v>0.0111815816285619</v>
       </c>
       <c r="T8">
-        <v>0.2610326279188002</v>
+        <v>0.01118158162856189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.671495666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.014487</v>
+      </c>
+      <c r="I9">
+        <v>0.05251874291389195</v>
+      </c>
+      <c r="J9">
+        <v>0.05251874291389194</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N9">
+        <v>1.595566</v>
+      </c>
+      <c r="O9">
+        <v>0.3645195816936723</v>
+      </c>
+      <c r="P9">
+        <v>0.3645195816936722</v>
+      </c>
+      <c r="Q9">
+        <v>0.8889938849602221</v>
+      </c>
+      <c r="R9">
+        <v>8.000944964641999</v>
+      </c>
+      <c r="S9">
+        <v>0.01914411019804941</v>
+      </c>
+      <c r="T9">
+        <v>0.0191441101980494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.671495666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.014487</v>
+      </c>
+      <c r="I10">
+        <v>0.05251874291389195</v>
+      </c>
+      <c r="J10">
+        <v>0.05251874291389194</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.61656</v>
+      </c>
+      <c r="N10">
+        <v>1.84968</v>
+      </c>
+      <c r="O10">
+        <v>0.4225739203938614</v>
+      </c>
+      <c r="P10">
+        <v>0.4225739203938613</v>
+      </c>
+      <c r="Q10">
+        <v>1.03057736824</v>
+      </c>
+      <c r="R10">
+        <v>9.27519631416</v>
+      </c>
+      <c r="S10">
+        <v>0.02219305108728065</v>
+      </c>
+      <c r="T10">
+        <v>0.02219305108728064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H11">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J11">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.310643</v>
+      </c>
+      <c r="N11">
+        <v>0.931929</v>
+      </c>
+      <c r="O11">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="P11">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="Q11">
+        <v>0.7165336998973333</v>
+      </c>
+      <c r="R11">
+        <v>6.448803299075999</v>
+      </c>
+      <c r="S11">
+        <v>0.01543025249500382</v>
+      </c>
+      <c r="T11">
+        <v>0.01543025249500382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H12">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J12">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N12">
+        <v>1.595566</v>
+      </c>
+      <c r="O12">
+        <v>0.3645195816936723</v>
+      </c>
+      <c r="P12">
+        <v>0.3645195816936722</v>
+      </c>
+      <c r="Q12">
+        <v>1.226785312411555</v>
+      </c>
+      <c r="R12">
+        <v>11.041067811704</v>
+      </c>
+      <c r="S12">
+        <v>0.0264183068156944</v>
+      </c>
+      <c r="T12">
+        <v>0.0264183068156944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H13">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J13">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.61656</v>
+      </c>
+      <c r="N13">
+        <v>1.84968</v>
+      </c>
+      <c r="O13">
+        <v>0.4225739203938614</v>
+      </c>
+      <c r="P13">
+        <v>0.4225739203938613</v>
+      </c>
+      <c r="Q13">
+        <v>1.42216633888</v>
+      </c>
+      <c r="R13">
+        <v>12.79949704992</v>
+      </c>
+      <c r="S13">
+        <v>0.0306257552184326</v>
+      </c>
+      <c r="T13">
+        <v>0.0306257552184326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.913504</v>
+      </c>
+      <c r="I14">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J14">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.310643</v>
+      </c>
+      <c r="N14">
+        <v>0.931929</v>
+      </c>
+      <c r="O14">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="P14">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="Q14">
+        <v>1.440710874357333</v>
+      </c>
+      <c r="R14">
+        <v>12.966397869216</v>
+      </c>
+      <c r="S14">
+        <v>0.03102510400671543</v>
+      </c>
+      <c r="T14">
+        <v>0.03102510400671542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.913504</v>
+      </c>
+      <c r="I15">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J15">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N15">
+        <v>1.595566</v>
+      </c>
+      <c r="O15">
+        <v>0.3645195816936723</v>
+      </c>
+      <c r="P15">
+        <v>0.3645195816936722</v>
+      </c>
+      <c r="Q15">
+        <v>2.466657102584888</v>
+      </c>
+      <c r="R15">
+        <v>22.199913923264</v>
+      </c>
+      <c r="S15">
+        <v>0.05311842543753751</v>
+      </c>
+      <c r="T15">
+        <v>0.0531184254375375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="H9">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="I9">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="J9">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.557847926086952</v>
-      </c>
-      <c r="N9">
-        <v>0.557847926086952</v>
-      </c>
-      <c r="O9">
-        <v>0.5303494949128573</v>
-      </c>
-      <c r="P9">
-        <v>0.5303494949128573</v>
-      </c>
-      <c r="Q9">
-        <v>6.154411858435461</v>
-      </c>
-      <c r="R9">
-        <v>6.154411858435461</v>
-      </c>
-      <c r="S9">
-        <v>0.294769239834682</v>
-      </c>
-      <c r="T9">
-        <v>0.294769239834682</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.913504</v>
+      </c>
+      <c r="I16">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J16">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.61656</v>
+      </c>
+      <c r="N16">
+        <v>1.84968</v>
+      </c>
+      <c r="O16">
+        <v>0.4225739203938614</v>
+      </c>
+      <c r="P16">
+        <v>0.4225739203938613</v>
+      </c>
+      <c r="Q16">
+        <v>2.85950334208</v>
+      </c>
+      <c r="R16">
+        <v>25.73553007872</v>
+      </c>
+      <c r="S16">
+        <v>0.06157820432580313</v>
+      </c>
+      <c r="T16">
+        <v>0.06157820432580313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H17">
+        <v>54.985853</v>
+      </c>
+      <c r="I17">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J17">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.310643</v>
+      </c>
+      <c r="N17">
+        <v>0.931929</v>
+      </c>
+      <c r="O17">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="P17">
+        <v>0.2129064979124664</v>
+      </c>
+      <c r="Q17">
+        <v>5.693656777826333</v>
+      </c>
+      <c r="R17">
+        <v>51.242911000437</v>
+      </c>
+      <c r="S17">
+        <v>0.1226105090581758</v>
+      </c>
+      <c r="T17">
+        <v>0.1226105090581758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H18">
+        <v>54.985853</v>
+      </c>
+      <c r="I18">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J18">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5318553333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.595566</v>
+      </c>
+      <c r="O18">
+        <v>0.3645195816936723</v>
+      </c>
+      <c r="P18">
+        <v>0.3645195816936722</v>
+      </c>
+      <c r="Q18">
+        <v>9.74817305864422</v>
+      </c>
+      <c r="R18">
+        <v>87.73355752779798</v>
+      </c>
+      <c r="S18">
+        <v>0.2099228154676132</v>
+      </c>
+      <c r="T18">
+        <v>0.2099228154676132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H19">
+        <v>54.985853</v>
+      </c>
+      <c r="I19">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J19">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.61656</v>
+      </c>
+      <c r="N19">
+        <v>1.84968</v>
+      </c>
+      <c r="O19">
+        <v>0.4225739203938614</v>
+      </c>
+      <c r="P19">
+        <v>0.4225739203938613</v>
+      </c>
+      <c r="Q19">
+        <v>11.30069250856</v>
+      </c>
+      <c r="R19">
+        <v>101.70623257704</v>
+      </c>
+      <c r="S19">
+        <v>0.2433556702224383</v>
+      </c>
+      <c r="T19">
+        <v>0.2433556702224382</v>
       </c>
     </row>
   </sheetData>
